--- a/LR1/1.8.xlsx
+++ b/LR1/1.8.xlsx
@@ -1,115 +1,100 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aliyas\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884CC72B-CCAC-4C1C-8878-85562050A449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25721"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB0C6D7B-66F7-4A84-BB12-AF68C4B5BE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
-  <si>
-    <t>q0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>_</t>
   </si>
   <si>
     <t>q1</t>
   </si>
   <si>
+    <t xml:space="preserve">  a,</t>
+  </si>
+  <si>
+    <t>b,R,q1</t>
+  </si>
+  <si>
+    <t>c,R,q1</t>
+  </si>
+  <si>
+    <t>_,L,q2</t>
+  </si>
+  <si>
     <t>q2</t>
   </si>
   <si>
+    <t>c,L,q2</t>
+  </si>
+  <si>
+    <t>_,R,!</t>
+  </si>
+  <si>
     <t>q3</t>
   </si>
   <si>
+    <t>a,R,q3</t>
+  </si>
+  <si>
+    <t>b,R,q3</t>
+  </si>
+  <si>
+    <t>c,R,q3</t>
+  </si>
+  <si>
+    <t>_,L,q4</t>
+  </si>
+  <si>
     <t>q4</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>a,L,q0</t>
-  </si>
-  <si>
-    <t>a,L,q2</t>
-  </si>
-  <si>
-    <t>b,L,q0</t>
-  </si>
-  <si>
-    <t>b,R,q1</t>
-  </si>
-  <si>
-    <t>c,L,q0</t>
-  </si>
-  <si>
-    <t>c,L,q2</t>
-  </si>
-  <si>
-    <t>c,L,q3</t>
-  </si>
-  <si>
-    <t>c,R,q1</t>
-  </si>
-  <si>
-    <t>b,L,q2</t>
-  </si>
-  <si>
-    <t>a,R,q4</t>
-  </si>
-  <si>
-    <t>_,R,q1</t>
-  </si>
-  <si>
-    <t>_,N,!</t>
-  </si>
-  <si>
-    <t>_,R,q4</t>
-  </si>
-  <si>
-    <t>_,L,q3</t>
+    <t>a,N,!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,17 +120,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -174,7 +156,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -186,7 +168,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -203,7 +185,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -233,12 +215,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -268,6 +267,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -420,116 +436,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="A1:E6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LR1/1.8.xlsx
+++ b/LR1/1.8.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25721"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB0C6D7B-66F7-4A84-BB12-AF68C4B5BE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5333DB28-BB77-4B42-BBFF-AB3447BA5E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
     <t>q1</t>
   </si>
   <si>
-    <t xml:space="preserve">  a,</t>
+    <t xml:space="preserve"> ,a,</t>
   </si>
   <si>
     <t>b,R,q1</t>
@@ -439,7 +439,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
